--- a/resources/synonyms/projects_synonyms.xlsx
+++ b/resources/synonyms/projects_synonyms.xlsx
@@ -13,6 +13,77 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+  <si>
+    <t>DocX - Processamento de consultas e gerência de versões de documentos XML</t>
+  </si>
+  <si>
+    <t>DocX Processamento de consultas e gerência de versões de documentos XML - R$ 43.767,45</t>
+  </si>
+  <si>
+    <t>DocX - Processamento de consultas e gerência de versões de documentos XML (CNPq, Edital Universal)</t>
+  </si>
+  <si>
+    <t>Desafios Computacionais para Mobilidade Urbana</t>
+  </si>
+  <si>
+    <t>Desafios Computacionais para Mobilidade Urbana - R$ 74.004,00</t>
+  </si>
+  <si>
+    <t>Desafios Computacionais para Mobilidade Urbana (CNPq, Edital Universal)</t>
+  </si>
+  <si>
+    <t>Balanceamento, Testes e Compreensão de Sessões de Jogos Digitais por meio de Proveniência</t>
+  </si>
+  <si>
+    <t>Balanceamento, Testes e Compreensão de Sessões de Jogos Digitais por meio de Proveniência - R$ 55.982,69</t>
+  </si>
+  <si>
+    <t>Balanceamento, Testes e Compreensão de Sessões de Jogos Digitais por meio de Proveniência (FAPERJ, Apoio às Instituições de Ensino e Pesquisa Sediadas no Estado do Rio de Janeiro)</t>
+  </si>
+  <si>
+    <t>SciCumulus2 - Infraestrutura Computacional para Execução de Experimentos Científicos em Nuvens de Computadores</t>
+  </si>
+  <si>
+    <t>SciCumulus2 - Infraestrutura Computacional para Execução de Experimentos Científicos em Nuvens de Computadores - R$ 14.500,00</t>
+  </si>
+  <si>
+    <t>GExp - Gerência de experimentos científicos em larga escala</t>
+  </si>
+  <si>
+    <t>GExp - Gerência de experimentos científicos em larga escala - R$ 366.549,76</t>
+  </si>
+  <si>
+    <t>GExp - Gerência de experimentos científicos em larga escala (CNPq, Edital Grandes Desafios)</t>
+  </si>
+  <si>
+    <t>Gerência de Experimentos Científicos Datacêntricos em Nuvens de Computadores</t>
+  </si>
+  <si>
+    <t>Gerência de Experimentos Científicos Datacêntricos em Nuvens de Computadores - R$ 20.500,00</t>
+  </si>
+  <si>
+    <t>CiclExp - Apoio ao Ciclo de vida de Experimentos científicos</t>
+  </si>
+  <si>
+    <t>CiclExp - Apoio ao Ciclo de vida de Experimentos científicos - R$ 122.000,00</t>
+  </si>
+  <si>
+    <t>CiclExp - Apoio ao Ciclo de vida de Experimentos (CNPq, Edital Universal)</t>
+  </si>
+  <si>
+    <t>Aceleração de Experimentos Científicos</t>
+  </si>
+  <si>
+    <t>Aceleração de Experimentos Científicos - R$ 40.000,00</t>
+  </si>
+  <si>
+    <t>Aceleração de Experimentos Científicos (CNPq, Edital Universal)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
@@ -44,16 +115,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,17 +172,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,39 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,41 +201,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -183,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,6 +445,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -401,41 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -451,21 +537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -485,142 +556,142 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -947,14 +1018,103 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I16"/>
+      <selection activeCell="H23" sqref="H23:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
